--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value295.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value295.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.634372609959636</v>
+        <v>0.9544851183891296</v>
       </c>
       <c r="B1">
-        <v>1.741386877340295</v>
+        <v>1.581608891487122</v>
       </c>
       <c r="C1">
-        <v>1.815415540543873</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.447102695213679</v>
+        <v>2.609119653701782</v>
       </c>
       <c r="E1">
-        <v>0.9391825631407281</v>
+        <v>1.360632658004761</v>
       </c>
     </row>
   </sheetData>
